--- a/processed/data4.xlsx
+++ b/processed/data4.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\myfinalproject\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6CA7F89-6874-4C7F-BE7D-7DB506B70385}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4FBAF4-2206-4140-BDE1-8710A3C32121}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F030E767-A3AC-4215-9997-B036FE707C9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -155,6 +158,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,7 +473,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
